--- a/inputs/bbva_llm_rules_verification.xlsx
+++ b/inputs/bbva_llm_rules_verification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mstar\银行审核要点\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mstar\bbva-pdf-verification\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,222 +28,74 @@
   </si>
   <si>
     <t>Rule ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易笔数校验_入账笔数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易笔数校验_出账笔数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额校验_入账金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易金额校验_出账金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核要点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及银行流水字段指标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>比较1和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2是否相等</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果相等，输出一致；如果不相等，输出不一致；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STAR_RULE_BBVA_001</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STAR_RULE_BBVA_002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STAR_RULE_BBVA_003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STAR_RULE_BBVA_004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>1.取Comportamiento中Depósitos / Abonos (+)所在行的第一个数为笔数；
-2.Detalle de Movimientos Realizados部分：交易明细ABONOS列取值不为空的交易总笔数；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Comportamiento中Retiros / Cargos (-)所在行的第一个数为笔数；
-2.Detalle de Movimientos Realizados部分：交易明细CARGOS列取值不为空的交易总笔数；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Comportamiento中Depósitos / Abonos (+)所在行的第二个数为金额；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.Detalle de Movimientos Realizados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>部分：交易明细ABONOS列取值不为空的交易金额求和；</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Comportamiento中Retiros / Cargos (-)--所在行的第二个数为金额；
-2.Detalle de Movimientos Realizados部分：交易明细CARGOS列取值不为空的交易金额求和；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果相等，输出一致（无异常）；如果不相等，输出不一致（异常）；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_CNT_ABONOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_CNT_CARGOS</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_AMT_ABONOS</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_AMT_CARGOS</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Condition Logic</t>
+  </si>
+  <si>
+    <t>明细交易笔数校验_入账笔数</t>
+  </si>
+  <si>
+    <t>1、取 Comportamiento 中 Depósitos / Abonos (+) 的笔数
+2、取交易明细 ABONOS 列的所有交易笔数计数求和</t>
+  </si>
+  <si>
+    <t>比较1和2是否相等</t>
+  </si>
+  <si>
+    <t>明细交易笔数校验_出账笔数</t>
+  </si>
+  <si>
+    <t>1、取 Comportamiento 中 Retiros / Cargos (-) 的笔数
+2、取交易明细 CARGOS 列的所有交易笔数计数求和</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_入账金额</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_出账金额</t>
+  </si>
+  <si>
+    <t>1、取 Comportamiento 中 Retiros / Cargos (-) 的金额
+2、取交易明细 CARGOS 列的所有交易金额求和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、取 Comportamiento 中 Depósitos / Abonos (+) 的金额
+2、取交易明细 ABONOS 列的所有交易金额求和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -256,22 +108,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -294,6 +131,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -310,7 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,32 +231,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,28 +535,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.109375" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -721,76 +565,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inputs/bbva_llm_rules_verification.xlsx
+++ b/inputs/bbva_llm_rules_verification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mstar\bbva-pdf-verification\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mstar\bbva-pdf-verification_部署版本\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>校验规则</t>
   </si>
@@ -51,39 +51,228 @@
     <t>Rule Name</t>
   </si>
   <si>
+    <t>明细交易笔数校验_入账笔数</t>
+  </si>
+  <si>
+    <t>比较1和2是否相等</t>
+  </si>
+  <si>
+    <t>明细交易笔数校验_出账笔数</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_入账金额</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_出账金额</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_单笔金额</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DATE_CHK_CONS</t>
+  </si>
+  <si>
+    <t>交易日期校验_日期一致性</t>
+  </si>
+  <si>
+    <t>交易明细分析_高风险职业</t>
+  </si>
+  <si>
+    <t>交易明细分析_快进快出</t>
+  </si>
+  <si>
+    <t>交易明细分析_异常备注</t>
+  </si>
+  <si>
+    <t>交易时间校验_特殊时间段交易</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_ANAL_RISK_OCC</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_ANAL_FAST_IO</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_ANAL_ABN_REM</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_TIME_CHK_SPECIAL</t>
+  </si>
+  <si>
+    <t>如果每一个轮次中result值都为0，输出一致（无异常）；
+如果任意一个轮次中result值不为0，输出不一致（异常）；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">步骤1：取出Detalle de Movimientos Realizados的DESCRIPCION对应的所有的值；
+步骤2：将Realizados的DESCRIPCION对应的所有的值翻译成中文；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPCION对应的所有的值的中文含义中：是否命中以下任意关键词：
+现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；
+可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中任意一个，输出异常；全部都没命中，输出正常；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count是否大于10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果count&gt;10，输出交易时间异常；count&lt;=10，输出正常;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录每一个轮次中步骤4中的result值，是否所有的result都为0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果ratio&gt;0.8，输出“命中快进快出（异常）”；如果ratio&lt;=0.8，输出“未命中快进快出（无异常）”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤2中的min_date和max_date是否在步骤1的日期区间范围内；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果步骤2中的min_date和max_date在步骤1的日期区间范围内，输出“一致（无异常）”；如果步骤3中的min_date和max_date不在步骤1的日期区间范围内，输出“不一致（异常）”；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_AMT_SINGLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Condition Logic</t>
-  </si>
-  <si>
-    <t>明细交易笔数校验_入账笔数</t>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Depósitos / Abonos (+) 的笔数
-2、取交易明细 ABONOS 列的所有交易笔数计数求和</t>
-  </si>
-  <si>
-    <t>比较1和2是否相等</t>
-  </si>
-  <si>
-    <t>明细交易笔数校验_出账笔数</t>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Retiros / Cargos (-) 的笔数
-2、取交易明细 CARGOS 列的所有交易笔数计数求和</t>
-  </si>
-  <si>
-    <t>明细交易金额校验_入账金额</t>
-  </si>
-  <si>
-    <t>明细交易金额校验_出账金额</t>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Retiros / Cargos (-) 的金额
-2、取交易明细 CARGOS 列的所有交易金额求和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Depósitos / Abonos (+) 的金额
-2、取交易明细 ABONOS 列的所有交易金额求和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步骤1：取Detalle de Movimientos Realizados中所有记录并按照OPER日期升序排序；
+步骤2：统计所有记录中ABONOS取值不为空的总记录数为total_cargo_cnt；
+步骤3：以Detalle de Movimientos Realizados中第一条记录开始往下逐一查找ABONOS值不为空的行，将该条记录所在的行作为起始行，获取该条记录的ABONOS值记为ABONOS1，获取该记录的OPER日期记为OPER1；
+步骤4：以步骤3中的起始行开始往下逐行查找，获取离起始行最近的且CARGOS列的值和ABONOS1相同的记录，获取该记录的OPER日期记为OPER2；
+步骤5：比较OPER2日期和OPER1日期的间隔天数，结果记为result；
+步骤6：以步骤3中的起始行的下一条记录所在的行作为起始行，重复步骤3-步骤6，直到取完所有记录；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.记录每一个轮次中步骤5中的result值，如果result小于等于1，则最终结果result_total计数加1;
+2.用result_total/cnt，结果值记为ratio；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。
+(Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。
+(Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。注意：通常不仅有金额，还有笔数列。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
+(Step 4) 计算符合条件的交易总行数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总笔数（Total Movimientos Abonos）。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
+(Step 4) 计算符合条件的交易总行数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(Step 1) 获取步骤1中"content"的值中模糊匹配包含“Periodo”的信息，其中会包括两个日期，（如：DEL 21/06/2025 AL 20/07/2025"，则对应的日期区间为“[DEL 21/06/2025,AL 20/07/2025]”）；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Step 2)取Detalle de Movimientos Realizados中所有的OPER和LIQ，并计算出其中最小日期和最大日期，最小日期和最大日期分别记为min_date和max_date;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤1：获取解析后Detalle de Movimientos Realizados部分的description，如description内容为"RETIRO CAJERO AUTOMATICO JUN21 11:25 BBVA 9340 FOLIO:8584"，则提取出的时间"11:25"（24小时制）；
+步骤2： 依次获取每一条transactions部分的description中的时间，如果transactions部分的description内容中没有时间，则跳过该记录进入下一条，直到所有的记录都遍历完；
+步骤3：将获取到的所有的时间放到一个集合中；
+步骤4：统计获取的时间中处于2点-5点总交易笔数（包括2点和5点（24小时制）），记为count；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步骤1：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值；
+</t>
+  </si>
+  <si>
+    <t>(Step 1) 保持交易列表的【原始顺序】（重要：不要按日期重排，以免破坏同日交易的余额顺序）。
+(Step 2) 确定初始锚点(Balance_1)：
+    - 若第一行交易有 'OPERACIÓN' 值或者‘SALDO OPERACIÓN’值，将其记为 Balance_1（计算起点从下一行开始）。
+    - 若无，尝试取 'Summary' 的 'Saldo Anterior' 为 Balance_1（计算起点从第一行开始）。
+(Step 3) 寻找下一个锚点(Balance_2)：
+    - 向下遍历，找到下一个有 'OPERACIÓN' 或者‘SALDO OPERACIÓN’值的行，记为 Balance_2。
+(Step 4) 区间核算：
+    - 累加 Balance_1 (不含) 到 Balance_2 (含) 之间的所有 'CARGOS' (减项) 和 'ABONOS' (加项)。
+    - 验证公式：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。
+(Step 5) 迭代：将 Balance_2 设为新的 Balance_1，重复 Step 3-4 直到末尾。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -104,6 +293,7 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -138,8 +328,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,10 +450,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -237,9 +466,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -258,9 +484,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,30 +793,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
+      <c r="C1" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -565,72 +825,174 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="5" spans="1:5" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="227.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
+    <row r="10" spans="1:5" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/bbva_llm_rules_verification.xlsx
+++ b/inputs/bbva_llm_rules_verification.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>校验规则</t>
   </si>
@@ -51,39 +51,229 @@
     <t>Rule Name</t>
   </si>
   <si>
+    <t>明细交易笔数校验_入账笔数</t>
+  </si>
+  <si>
+    <t>比较1和2是否相等</t>
+  </si>
+  <si>
+    <t>明细交易笔数校验_出账笔数</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_入账金额</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_出账金额</t>
+  </si>
+  <si>
+    <t>明细交易金额校验_单笔金额</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DATE_CHK_CONS</t>
+  </si>
+  <si>
+    <t>交易日期校验_日期一致性</t>
+  </si>
+  <si>
+    <t>交易明细分析_高风险职业</t>
+  </si>
+  <si>
+    <t>交易明细分析_快进快出</t>
+  </si>
+  <si>
+    <t>交易明细分析_异常备注</t>
+  </si>
+  <si>
+    <t>交易时间校验_特殊时间段交易</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_ANAL_RISK_OCC</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_ANAL_FAST_IO</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_ANAL_ABN_REM</t>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_TIME_CHK_SPECIAL</t>
+  </si>
+  <si>
+    <t>如果每一个轮次中result值都为0，输出一致（无异常）；
+如果任意一个轮次中result值不为0，输出不一致（异常）；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPCION对应的所有的值的中文含义中：是否命中以下任意关键词：
+现金密集型业务；小型零售商和街头摊贩（如露天市场摊贩）；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；
+可能与贩毒或有组织犯罪相关的幌子企业（如虚假奢侈品转售店、空壳运输公司）；欺诈高发行业；不受监管的汽车经销商或中介，尤其是推广 “零首付” 优惠的或收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中任意一个，输出异常；全部都没命中，输出正常；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断DESCRIPCION对应的所有的值是否包含以下任意关键词：Apuesta，médico / médic，juego</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count是否大于10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果count&gt;10，输出交易时间异常；count&lt;=10，输出正常;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录每一个轮次中步骤4中的result值，是否所有的result都为0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果ratio&gt;0.8，输出“命中快进快出（异常）”；如果ratio&lt;=0.8，输出“未命中快进快出（无异常）”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤2中的min_date和max_date是否在步骤1的日期区间范围内；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果步骤2中的min_date和max_date在步骤1的日期区间范围内，输出“一致（无异常）”；如果步骤3中的min_date和max_date不在步骤1的日期区间范围内，输出“不一致（异常）”；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTAR_BBVA_DTL_AMT_SINGLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Condition Logic</t>
-  </si>
-  <si>
-    <t>明细交易笔数校验_入账笔数</t>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Depósitos / Abonos (+) 的笔数
-2、取交易明细 ABONOS 列的所有交易笔数计数求和</t>
-  </si>
-  <si>
-    <t>比较1和2是否相等</t>
-  </si>
-  <si>
-    <t>明细交易笔数校验_出账笔数</t>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Retiros / Cargos (-) 的笔数
-2、取交易明细 CARGOS 列的所有交易笔数计数求和</t>
-  </si>
-  <si>
-    <t>明细交易金额校验_入账金额</t>
-  </si>
-  <si>
-    <t>明细交易金额校验_出账金额</t>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Retiros / Cargos (-) 的金额
-2、取交易明细 CARGOS 列的所有交易金额求和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、取 Comportamiento 中 Depósitos / Abonos (+) 的金额
-2、取交易明细 ABONOS 列的所有交易金额求和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 保持交易列表的【原始顺序】（重要：不要按日期重排，以免破坏同日交易的余额顺序）。
+(Step 2) 确定初始锚点(Balance_1)：
+    - 若第一行交易有 'OPERACIÓN' 值或者‘SALDO OPERACIÓN’值，将其记为 Balance_1（计算起点从下一行开始）。
+    - 若无，尝试取 'Summary' 的 'Saldo Anterior' 为 Balance_1（计算起点从第一行开始）。
+(Step 3) 寻找下一个锚点(Balance_2)：
+    - 向下遍历，找到下一个有 'OPERACIÓN' 或者‘SALDO OPERACIÓN’值的行，记为 Balance_2。
+(Step 4) 区间核算：
+    - 累加 Balance_1 (不含) 到 Balance_2 (含) 之间的所有 'CARGOS' (减项) 和 'ABONOS' (加项)。
+    - 验证公式：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2。
+(Step 5) 迭代：将 Balance_2 设为新的 Balance_1，重复 Step 3-4 直到末尾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总笔数（Total Movimientos Abonos）。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'或raw_transaction_data（交易明细）部分的所有交易行。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
+(Step 4) 计算符合条件的交易总行数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。注意：通常不仅有金额，还有笔数列。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'或raw_transaction_data（交易明细）部分的所有交易行。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
+(Step 4) 计算符合条件的交易总行数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+(Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+(Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(Step 1) 获取步骤1中"content"的值中模糊匹配包含“Periodo”的信息，其中会包括两个日期，（如：DEL 21/06/2025 AL 20/07/2025"，则对应的日期区间为“[DEL 21/06/2025,AL 20/07/2025]”）；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Step 2)取Detalle de Movimientos Realizados或raw_transaction_data中所有的OPER和LIQ，并计算出其中最小日期和最大日期，最小日期和最大日期分别记为min_date和max_date;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">步骤1：取出Detalle de Movimientos Realizados或raw_transaction_data的DESCRIPCION对应的所有的值；
+步骤2：将Realizados的DESCRIPCION对应的所有的值翻译成中文；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步骤1：取Detalle de Movimientos Realizados或‘raw_transaction_data’中所有记录并按照OPER日期升序排序；
+步骤2：统计所有记录中ABONOS取值不为空的总记录数为total_cargo_cnt；
+步骤3：以Detalle de Movimientos Realizados或raw_transaction_data中第一条记录开始往下逐一查找ABONOS值不为空的行，将该条记录所在的行作为起始行，获取该条记录的ABONOS值记为ABONOS1，获取该记录的OPER日期记为OPER1；
+步骤4：以步骤3中的起始行开始往下逐行查找，获取离起始行最近的且CARGOS列的值和ABONOS1相同的记录，获取该记录的OPER日期记为OPER2；
+步骤5：比较OPER2日期和OPER1日期的间隔天数，结果记为result；
+步骤6：以步骤3中的起始行的下一条记录所在的行作为起始行，重复步骤3-步骤6，直到取完所有记录；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">步骤1：获取解析后Detalle de Movimientos Realizados或raw_transaction_data部分的description对应的所有的值；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤1： 依次获取解析后Detalle de Movimientos Realizados或raw_transaction_data部分的每一条记录的description，如description内容为"RETIRO CAJERO AUTOMATICO JUN21 11:25 BBVA 9340 FOLIO:8584"，则提取出的时间"11:25"（24小时制）；如果description内容中没有时间，则跳过该记录进入下一条，直到所有的记录都遍历完；
+步骤2：将获取到的所有的时间放到一个集合中（没有就为空）；
+步骤3：统计获取的时间中处于2点-5点总交易笔数（包括2点和5点（24小时制）），记为count；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.记录每一个轮次中步骤5中的result值，如果result小于等于1，则最终结果result_total计数加1;
+2.用result_total/total_cargo_cnt，结果值记为ratio；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -104,6 +294,7 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -138,8 +329,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,10 +451,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -237,9 +467,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -258,9 +485,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,30 +794,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
+      <c r="C1" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -565,72 +826,174 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="5" spans="1:5" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
+      <c r="C6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="227.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
+      <c r="C9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
+    <row r="10" spans="1:5" ht="95.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/bbva_llm_rules_verification.xlsx
+++ b/inputs/bbva_llm_rules_verification.xlsx
@@ -188,41 +188,6 @@
 (Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
 (Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
 (Step 4) 确保金额格式转换正确（处理千分位逗号）。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-(Step 1) 获取步骤1中"content"的值中模糊匹配包含“Periodo”的信息，其中会包括两个日期，（如：DEL 21/06/2025 AL 20/07/2025"，则对应的日期区间为“[DEL 21/06/2025,AL 20/07/2025]”）；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(Step 2)取Detalle de Movimientos Realizados或raw_transaction_data中所有的OPER和LIQ，并计算出其中最小日期和最大日期，最小日期和最大日期分别记为min_date和max_date;</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -274,6 +239,40 @@
   <si>
     <t>1.记录每一个轮次中步骤5中的result值，如果result小于等于1，则最终结果result_total计数加1;
 2.用result_total/total_cargo_cnt，结果值记为ratio；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Step 1) 获取步骤1中"content"的值中模糊匹配包含“Periodo”的信息，其中会包括两个日期，（如：DEL 21/06/2025 AL 20/07/2025"，则对应的日期区间为“[DEL 21/06/2025,AL 20/07/2025]”）；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(Step 2)取Detalle de Movimientos Realizados或raw_transaction_data中所有的OPER和LIQ，并计算出其中最小日期和最大日期，最小日期和最大日期分别记为min_date和max_date;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -796,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -911,7 +910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -919,7 +918,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>33</v>
@@ -936,7 +935,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>26</v>
@@ -953,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>32</v>
@@ -970,7 +969,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>28</v>
@@ -987,7 +986,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>29</v>
